--- a/annexe/Guidelines API.xlsx
+++ b/annexe/Guidelines API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIITSCHY\DEV\Projet 7\Groupomania\Site\annexe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE560F24-790B-4A92-81D2-8160B85C7DAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D643B-521C-4D65-AD1F-398C4660B21C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Verb</t>
   </si>
@@ -1170,13 +1170,732 @@
   </si>
   <si>
     <t>Supprime le commentaire avec l'ID fourni.</t>
+  </si>
+  <si>
+    <t>/publications?page=nombre</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreateByUserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreateByUserNom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string ou null,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreateByUserPrenom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string null,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreationDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: date,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationTitre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationDescription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationImageUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationLikeCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationDislikeCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCommentCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userVote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: nombre ou null
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Renvoi les informations de la publication avec l'ID fournis.</t>
+  </si>
+  <si>
+    <t>Renvoi les informations des 10 publications les plus récentes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[
+    [
+        {
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreateByUserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreateByUserNom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string ou null,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreateByUserPrenom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string null,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCreationDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: date,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationTitre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationDescription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationImageUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationLikeCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationDislikeCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publicationCommentCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userVote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre ou null
+        }
+    ],
+    [
+        {
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commentaireCreateByUserId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commentaireCreateByUserNom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string ou null,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commentaireCreateByUserPrenom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string ou null,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commentaireId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commentaireCreationDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: date,
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commentaireMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: string
+        }
+    ]
+]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,6 +1915,22 @@
       <i/>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1222,7 +1957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1231,6 +1966,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1515,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6E73DD-C44C-4F5E-96ED-E61FE28DBFCA}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +2265,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" customWidth="1"/>
     <col min="5" max="5" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1735,29 +2476,49 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+    <row r="12" spans="1:7" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+    <row r="13" spans="1:7" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>

--- a/annexe/Guidelines API.xlsx
+++ b/annexe/Guidelines API.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIITSCHY\DEV\Projet 7\Groupomania\Site\annexe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D643B-521C-4D65-AD1F-398C4660B21C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DF6998-350D-483D-931F-B10DA7A31F90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="53">
   <si>
     <t>Verb</t>
   </si>
@@ -263,202 +264,6 @@
   </si>
   <si>
     <t>Supprime l'utilisateur avec l'ID fourni.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: string,
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>userId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: nombre,
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>niveau_acces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: nombre (0),
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:  string
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: string,
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>userId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: nombre,
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>niveau_acces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: nombre,
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:  string
-}</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1888,6 +1693,226 @@
         }
     ]
 ]</t>
+    </r>
+  </si>
+  <si>
+    <t>Renvoi les informations des 10 publications.</t>
+  </si>
+  <si>
+    <t>/publications/most-recent?page=nombre</t>
+  </si>
+  <si>
+    <t>/publications/most-liked?page=nombre</t>
+  </si>
+  <si>
+    <t>Renvoi les informations des 10 publications les plus aimées.</t>
+  </si>
+  <si>
+    <t>Renvoi les informations des 10 publications les plus commentées.</t>
+  </si>
+  <si>
+    <t>/publications/most-commented?page=nombre</t>
+  </si>
+  <si>
+    <t>/publications/user</t>
+  </si>
+  <si>
+    <t>Renvoi les informations des 10 publications les plus récentes de l'utilisateur.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>niveau acces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre (0),
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  string
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: string,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>niveau acces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nombre,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  string
+}</t>
     </r>
   </si>
 </sst>
@@ -2254,22 +2279,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6E73DD-C44C-4F5E-96ED-E61FE28DBFCA}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
     <col min="3" max="3" width="46.85546875" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.5703125" customWidth="1"/>
+    <col min="5" max="5" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2297,15 +2322,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2316,15 +2340,14 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2332,18 +2355,17 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2351,18 +2373,17 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2370,314 +2391,671 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CA63B0-5CB0-4A22-9658-45308F0E7DFF}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" customWidth="1"/>
+    <col min="5" max="5" width="69" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="357" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>